--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF380280-5293-43CD-B1FA-3D186838B0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F3F013-5AF5-480F-A395-CF3BE4A3D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36735" yWindow="4080" windowWidth="19185" windowHeight="10065" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
@@ -102,7 +102,7 @@
     <t>weight</t>
   </si>
   <si>
-    <t>labels</t>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F3F013-5AF5-480F-A395-CF3BE4A3D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453DA9D-0B57-44C3-8323-D1EAC5148B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36735" yWindow="4080" windowWidth="19185" windowHeight="10065" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>Orig</t>
   </si>
@@ -103,6 +103,33 @@
   </si>
   <si>
     <t>title</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>C004</t>
+  </si>
+  <si>
+    <t>C005</t>
+  </si>
+  <si>
+    <t>A005</t>
   </si>
 </sst>
 </file>
@@ -460,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7BB08-EF81-4462-9806-C1907D0235CB}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,6 +722,108 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>8000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>4000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>4000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -703,84 +832,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD939F-C75E-4971-8FEF-9E20DD36F658}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453DA9D-0B57-44C3-8323-D1EAC5148B7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FB4ED-D630-4265-B3F3-14C61FE2571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36735" yWindow="4080" windowWidth="19185" windowHeight="10065" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
+    <workbookView xWindow="36735" yWindow="4080" windowWidth="19185" windowHeight="10065" activeTab="1" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
   <si>
     <t>Orig</t>
   </si>
@@ -489,7 +489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7BB08-EF81-4462-9806-C1907D0235CB}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -832,10 +832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD939F-C75E-4971-8FEF-9E20DD36F658}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,18 +897,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -941,16 +941,50 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Network1.xlsx
+++ b/Network1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647FB4ED-D630-4265-B3F3-14C61FE2571F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E6E1F-DF7E-4D09-809D-42F0D6292A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36735" yWindow="4080" windowWidth="19185" windowHeight="10065" activeTab="1" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
+    <workbookView xWindow="630" yWindow="770" windowWidth="19190" windowHeight="10070" xr2:uid="{86D1673F-21E8-43A5-BA7E-655F18A310E4}"/>
   </bookViews>
   <sheets>
     <sheet name="edge" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="35">
   <si>
     <t>Orig</t>
   </si>
@@ -99,12 +99,6 @@
     <t>victum</t>
   </si>
   <si>
-    <t>weight</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -130,6 +124,24 @@
   </si>
   <si>
     <t>A005</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Orig.Bank</t>
+  </si>
+  <si>
+    <t>Dest.Bank</t>
+  </si>
+  <si>
+    <t>bankB</t>
+  </si>
+  <si>
+    <t>bankV</t>
+  </si>
+  <si>
+    <t>bankC</t>
   </si>
 </sst>
 </file>
@@ -487,21 +499,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7BB08-EF81-4462-9806-C1907D0235CB}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -509,16 +522,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -526,16 +542,19 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
       <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -543,16 +562,19 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -560,203 +582,239 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>10000</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>5000</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C7">
+        <v>3000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>10000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
         <v>5000</v>
       </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>8000</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>4000</v>
+      </c>
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>3000</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>2000</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>4</v>
-      </c>
-      <c r="D12">
-        <v>5000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
-        <v>5000</v>
-      </c>
       <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>8000</v>
+        <v>4000</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
+        <v>4000</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -764,64 +822,16 @@
         <v>28</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
         <v>4000</v>
       </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
       <c r="E16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>4000</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>4000</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>4000</v>
-      </c>
-      <c r="E19" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -834,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAD939F-C75E-4971-8FEF-9E20DD36F658}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -848,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -859,7 +869,7 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -870,7 +880,7 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -881,29 +891,29 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -914,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -925,7 +935,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -936,7 +946,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -947,29 +957,29 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -980,7 +990,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
